--- a/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
       <c r="G9" t="n">
-        <v>4.445</v>
+        <v>4.322</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
       <c r="G10" t="n">
-        <v>10.122</v>
+        <v>10.155</v>
       </c>
     </row>
     <row r="11">

--- a/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>49.276946</v>
+        <v>49.2767351</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8701212</v>
+        <v>6.8683942</v>
       </c>
       <c r="G3" t="n">
-        <v>4.149</v>
+        <v>4.275</v>
       </c>
     </row>
     <row r="4">

--- a/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>49.2370854</v>
+        <v>49.2371047</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9925905</v>
+        <v>6.9925617</v>
       </c>
       <c r="G4" t="n">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G9" t="n">
-        <v>4.322</v>
+        <v>4.445</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G10" t="n">
-        <v>10.155</v>
+        <v>10.122</v>
       </c>
     </row>
     <row r="11">

--- a/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>49.2371047</v>
+        <v>49.2370854</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9925617</v>
+        <v>6.9925905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="5">

--- a/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
+++ b/src/index_travel_accessibility/data/processed/nearest_hospitals_to_sample_points.xlsx
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G9" t="n">
-        <v>4.322</v>
+        <v>4.445</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="F10" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
       <c r="G10" t="n">
-        <v>10.155</v>
+        <v>10.122</v>
       </c>
     </row>
     <row r="11">
